--- a/Banco Central/11/1/2/Indicadores de actividad 1990 a 2021 - Mensual.xlsx
+++ b/Banco Central/11/1/2/Indicadores de actividad 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
   <si>
     <t>Serie</t>
   </si>
@@ -1166,6 +1166,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G378"/>
+  <dimension ref="A1:G379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9434,6 +9437,14 @@
         <v>116.08</v>
       </c>
     </row>
+    <row r="379" spans="1:6">
+      <c r="A379" t="s">
+        <v>384</v>
+      </c>
+      <c r="B379">
+        <v>355851</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
